--- a/ЗАВОДЫ/ПОКОМ/UZ/2025/10,25/23,10,25 ПОКОМ КИ Ташкент/дв 23,10,25 тшрсч пок ки от Шиганцова (согласовала Шувалова).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/UZ/2025/10,25/23,10,25 ПОКОМ КИ Ташкент/дв 23,10,25 тшрсч пок ки от Шиганцова (согласовала Шувалова).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\UZ\2025\10,25\23,10,25 ПОКОМ КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C9E6DB-4433-4179-8F89-CC7527551A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E297FCB-9789-4439-9170-27EA4D06489B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:AX484"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AE6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
@@ -1444,7 +1444,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <f>E6-K6</f>
+        <f t="shared" ref="L6:L37" si="0">E6-K6</f>
         <v>822.84</v>
       </c>
       <c r="M6" s="1"/>
@@ -1456,18 +1456,18 @@
         <v>1000</v>
       </c>
       <c r="Q6" s="1">
-        <f>E6/5</f>
+        <f t="shared" ref="Q6:Q37" si="1">E6/5</f>
         <v>164.56800000000001</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
-        <f>(F6+O6+P6+R6)/Q6</f>
+        <f t="shared" ref="U6:U37" si="2">(F6+O6+P6+R6)/Q6</f>
         <v>16.09061299888192</v>
       </c>
       <c r="V6" s="1">
-        <f>(F6+O6+P6)/Q6</f>
+        <f t="shared" ref="V6:V37" si="3">(F6+O6+P6)/Q6</f>
         <v>16.09061299888192</v>
       </c>
       <c r="W6" s="1">
@@ -1495,32 +1495,32 @@
         <v>128.83260000000001</v>
       </c>
       <c r="AE6" s="26">
-        <f>(Z6+AA6+AB6+AC6)*G6/4</f>
+        <f t="shared" ref="AE6:AE37" si="4">(Z6+AA6+AB6+AC6)*G6/4</f>
         <v>179.88265000000001</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1">
-        <f>G6*R6</f>
+        <f t="shared" ref="AG6:AG48" si="5">G6*R6</f>
         <v>0</v>
       </c>
       <c r="AH6" s="24">
-        <f>F6*G6</f>
+        <f t="shared" ref="AH6:AH37" si="6">F6*G6</f>
         <v>648</v>
       </c>
       <c r="AI6" s="24">
-        <f>O6*G6</f>
+        <f t="shared" ref="AI6:AI37" si="7">O6*G6</f>
         <v>1000</v>
       </c>
       <c r="AJ6" s="24">
-        <f>P6*G6</f>
+        <f t="shared" ref="AJ6:AJ11" si="8">P6*G6</f>
         <v>1000</v>
       </c>
       <c r="AK6" s="24">
-        <f>AE6</f>
+        <f t="shared" ref="AK6:AK37" si="9">AE6</f>
         <v>179.88265000000001</v>
       </c>
       <c r="AL6" s="30">
-        <f>(AH6+AI6+AJ6+AM6)/AK6</f>
+        <f t="shared" ref="AL6:AL37" si="10">(AH6+AI6+AJ6+AM6)/AK6</f>
         <v>18.612134077411021</v>
       </c>
       <c r="AM6" s="24">
@@ -1567,7 +1567,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <f>E7-K7</f>
+        <f t="shared" si="0"/>
         <v>469.84800000000001</v>
       </c>
       <c r="M7" s="1"/>
@@ -1579,18 +1579,18 @@
         <v>550</v>
       </c>
       <c r="Q7" s="1">
-        <f>E7/5</f>
+        <f t="shared" si="1"/>
         <v>93.9696</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1">
-        <f>(F7+O7+P7+R7)/Q7</f>
+        <f t="shared" si="2"/>
         <v>16.877798777476972</v>
       </c>
       <c r="V7" s="1">
-        <f>(F7+O7+P7)/Q7</f>
+        <f t="shared" si="3"/>
         <v>16.877798777476972</v>
       </c>
       <c r="W7" s="1">
@@ -1618,34 +1618,34 @@
         <v>116.7268</v>
       </c>
       <c r="AE7" s="26">
-        <f>(Z7+AA7+AB7+AC7)*G7/4</f>
+        <f t="shared" si="4"/>
         <v>111.00409999999999</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AG7" s="1">
-        <f>G7*R7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH7" s="24">
-        <f>F7*G7</f>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
       <c r="AI7" s="24">
-        <f>O7*G7</f>
+        <f t="shared" si="7"/>
         <v>700</v>
       </c>
       <c r="AJ7" s="24">
-        <f>P7*G7</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="AK7" s="24">
-        <f>AE7</f>
+        <f t="shared" si="9"/>
         <v>111.00409999999999</v>
       </c>
       <c r="AL7" s="30">
-        <f>(AH7+AI7+AJ7+AM7)/AK7</f>
+        <f t="shared" si="10"/>
         <v>19.062358957912366</v>
       </c>
       <c r="AM7" s="24">
@@ -1693,7 +1693,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f>E8-K8</f>
+        <f t="shared" si="0"/>
         <v>322.47199999999998</v>
       </c>
       <c r="M8" s="1"/>
@@ -1705,18 +1705,18 @@
         <v>760</v>
       </c>
       <c r="Q8" s="1">
-        <f>E8/5</f>
+        <f t="shared" si="1"/>
         <v>64.494399999999999</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <f>(F8+O8+P8+R8)/Q8</f>
+        <f t="shared" si="2"/>
         <v>24.281177900716962</v>
       </c>
       <c r="V8" s="1">
-        <f>(F8+O8+P8)/Q8</f>
+        <f t="shared" si="3"/>
         <v>24.281177900716962</v>
       </c>
       <c r="W8" s="1">
@@ -1744,34 +1744,34 @@
         <v>47.686799999999998</v>
       </c>
       <c r="AE8" s="26">
-        <f>(Z8+AA8+AB8+AC8)*G8/4</f>
+        <f t="shared" si="4"/>
         <v>88.2363</v>
       </c>
       <c r="AF8" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AG8" s="1">
-        <f>G8*R8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH8" s="24">
-        <f>F8*G8</f>
+        <f t="shared" si="6"/>
         <v>636</v>
       </c>
       <c r="AI8" s="24">
-        <f>O8*G8</f>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="AJ8" s="24">
-        <f>P8*G8</f>
+        <f t="shared" si="8"/>
         <v>760</v>
       </c>
       <c r="AK8" s="24">
-        <f>AE8</f>
+        <f t="shared" si="9"/>
         <v>88.2363</v>
       </c>
       <c r="AL8" s="30">
-        <f>(AH8+AI8+AJ8+AM8)/AK8</f>
+        <f t="shared" si="10"/>
         <v>19.901106460719681</v>
       </c>
       <c r="AM8" s="24">
@@ -1819,7 +1819,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f>E9-K9</f>
+        <f t="shared" si="0"/>
         <v>270.98400000000004</v>
       </c>
       <c r="M9" s="1"/>
@@ -1831,18 +1831,18 @@
         <v>630</v>
       </c>
       <c r="Q9" s="1">
-        <f>E9/5</f>
+        <f t="shared" si="1"/>
         <v>54.19680000000001</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
-        <f>(F9+O9+P9+R9)/Q9</f>
+        <f t="shared" si="2"/>
         <v>25.739527056948006</v>
       </c>
       <c r="V9" s="1">
-        <f>(F9+O9+P9)/Q9</f>
+        <f t="shared" si="3"/>
         <v>25.739527056948006</v>
       </c>
       <c r="W9" s="1">
@@ -1870,32 +1870,32 @@
         <v>49.985799999999998</v>
       </c>
       <c r="AE9" s="26">
-        <f>(Z9+AA9+AB9+AC9)*G9/4</f>
+        <f t="shared" si="4"/>
         <v>78.454049999999995</v>
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1">
-        <f>G9*R9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH9" s="24">
-        <f>F9*G9</f>
+        <f t="shared" si="6"/>
         <v>465</v>
       </c>
       <c r="AI9" s="24">
-        <f>O9*G9</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AJ9" s="24">
-        <f>P9*G9</f>
+        <f t="shared" si="8"/>
         <v>630</v>
       </c>
       <c r="AK9" s="24">
-        <f>AE9</f>
+        <f t="shared" si="9"/>
         <v>78.454049999999995</v>
       </c>
       <c r="AL9" s="30">
-        <f>(AH9+AI9+AJ9+AM9)/AK9</f>
+        <f t="shared" si="10"/>
         <v>20.330371727144744</v>
       </c>
       <c r="AM9" s="24">
@@ -1943,7 +1943,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f>E10-K10</f>
+        <f t="shared" si="0"/>
         <v>335.04500000000002</v>
       </c>
       <c r="M10" s="1"/>
@@ -1955,18 +1955,18 @@
         <v>190</v>
       </c>
       <c r="Q10" s="1">
-        <f>E10/5</f>
+        <f t="shared" si="1"/>
         <v>67.009</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1">
-        <f>(F10+O10+P10+R10)/Q10</f>
+        <f t="shared" si="2"/>
         <v>18.355743258368278</v>
       </c>
       <c r="V10" s="1">
-        <f>(F10+O10+P10)/Q10</f>
+        <f t="shared" si="3"/>
         <v>18.355743258368278</v>
       </c>
       <c r="W10" s="1">
@@ -1994,32 +1994,32 @@
         <v>63.05060000000001</v>
       </c>
       <c r="AE10" s="26">
-        <f>(Z10+AA10+AB10+AC10)*G10/4</f>
+        <f t="shared" si="4"/>
         <v>76.14425</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1">
-        <f>G10*R10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH10" s="24">
-        <f>F10*G10</f>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="AI10" s="24">
-        <f>O10*G10</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="AJ10" s="24">
-        <f>P10*G10</f>
+        <f t="shared" si="8"/>
         <v>190</v>
       </c>
       <c r="AK10" s="24">
-        <f>AE10</f>
+        <f t="shared" si="9"/>
         <v>76.14425</v>
       </c>
       <c r="AL10" s="30">
-        <f>(AH10+AI10+AJ10+AM10)/AK10</f>
+        <f t="shared" si="10"/>
         <v>19.436792666550659</v>
       </c>
       <c r="AM10" s="24">
@@ -2067,7 +2067,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f>E11-K11</f>
+        <f t="shared" si="0"/>
         <v>341.90300000000002</v>
       </c>
       <c r="M11" s="1"/>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <f>E11/5</f>
+        <f t="shared" si="1"/>
         <v>68.380600000000001</v>
       </c>
       <c r="R11" s="5">
@@ -2089,11 +2089,11 @@
       <c r="S11" s="5"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1">
-        <f>(F11+O11+P11+R11)/Q11</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V11" s="1">
-        <f>(F11+O11+P11)/Q11</f>
+        <f t="shared" si="3"/>
         <v>11.918585095772777</v>
       </c>
       <c r="W11" s="1">
@@ -2121,32 +2121,32 @@
         <v>44.398800000000001</v>
       </c>
       <c r="AE11" s="26">
-        <f>(Z11+AA11+AB11+AC11)*G11/4</f>
+        <f t="shared" si="4"/>
         <v>64.294249999999991</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1">
-        <f>G11*R11</f>
+        <f t="shared" si="5"/>
         <v>415.85079999999994</v>
       </c>
       <c r="AH11" s="24">
-        <f>F11*G11</f>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
       <c r="AI11" s="24">
-        <f>O11*G11</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="AJ11" s="24">
-        <f>P11*G11</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK11" s="24">
-        <f>AE11</f>
+        <f t="shared" si="9"/>
         <v>64.294249999999991</v>
       </c>
       <c r="AL11" s="30">
-        <f>(AH11+AI11+AJ11+AM11)/AK11</f>
+        <f t="shared" si="10"/>
         <v>19.675165353044793</v>
       </c>
       <c r="AM11" s="24">
@@ -2193,7 +2193,7 @@
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32">
-        <f>E12-K12</f>
+        <f t="shared" si="0"/>
         <v>196.40199999999999</v>
       </c>
       <c r="M12" s="32"/>
@@ -2205,18 +2205,18 @@
         <v>420</v>
       </c>
       <c r="Q12" s="32">
-        <f>E12/5</f>
+        <f t="shared" si="1"/>
         <v>39.2804</v>
       </c>
       <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="32"/>
       <c r="U12" s="32">
-        <f>(F12+O12+P12+R12)/Q12</f>
+        <f t="shared" si="2"/>
         <v>21.104673068502358</v>
       </c>
       <c r="V12" s="32">
-        <f>(F12+O12+P12)/Q12</f>
+        <f t="shared" si="3"/>
         <v>21.104673068502358</v>
       </c>
       <c r="W12" s="32">
@@ -2244,33 +2244,33 @@
         <v>45.824199999999998</v>
       </c>
       <c r="AE12" s="32">
-        <f>(Z12+AA12+AB12+AC12)*G12/4</f>
+        <f t="shared" si="4"/>
         <v>56.57235</v>
       </c>
       <c r="AF12" s="32" t="s">
         <v>87</v>
       </c>
       <c r="AG12" s="32">
-        <f>G12*R12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH12" s="35">
-        <f>F12*G12</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="AI12" s="35">
-        <f>O12*G12</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="AJ12" s="35">
         <v>250</v>
       </c>
       <c r="AK12" s="35">
-        <f>AE12</f>
+        <f t="shared" si="9"/>
         <v>56.57235</v>
       </c>
       <c r="AL12" s="36">
-        <f>(AH12+AI12+AJ12+AM12)/AK12</f>
+        <f t="shared" si="10"/>
         <v>11.648800164744792</v>
       </c>
       <c r="AM12" s="35"/>
@@ -2318,7 +2318,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f>E13-K13</f>
+        <f t="shared" si="0"/>
         <v>177.083</v>
       </c>
       <c r="M13" s="1"/>
@@ -2330,18 +2330,18 @@
         <v>170</v>
       </c>
       <c r="Q13" s="1">
-        <f>E13/5</f>
+        <f t="shared" si="1"/>
         <v>35.416600000000003</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
-        <f>(F13+O13+P13+R13)/Q13</f>
+        <f t="shared" si="2"/>
         <v>24.000045176555624</v>
       </c>
       <c r="V13" s="1">
-        <f>(F13+O13+P13)/Q13</f>
+        <f t="shared" si="3"/>
         <v>24.000045176555624</v>
       </c>
       <c r="W13" s="1">
@@ -2369,32 +2369,32 @@
         <v>50.760800000000003</v>
       </c>
       <c r="AE13" s="26">
-        <f>(Z13+AA13+AB13+AC13)*G13/4</f>
+        <f t="shared" si="4"/>
         <v>56.405999999999992</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1">
-        <f>G13*R13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH13" s="24">
-        <f>F13*G13</f>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="AI13" s="24">
-        <f>O13*G13</f>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="AJ13" s="24">
-        <f>P13*G13</f>
+        <f t="shared" ref="AJ13:AJ44" si="11">P13*G13</f>
         <v>170</v>
       </c>
       <c r="AK13" s="24">
-        <f>AE13</f>
+        <f t="shared" si="9"/>
         <v>56.405999999999992</v>
       </c>
       <c r="AL13" s="30">
-        <f>(AH13+AI13+AJ13+AM13)/AK13</f>
+        <f t="shared" si="10"/>
         <v>20.387901996241538</v>
       </c>
       <c r="AM13" s="24">
@@ -2441,7 +2441,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f>E14-K14</f>
+        <f t="shared" si="0"/>
         <v>198.41399999999999</v>
       </c>
       <c r="M14" s="1"/>
@@ -2453,18 +2453,18 @@
         <v>130</v>
       </c>
       <c r="Q14" s="1">
-        <f>E14/5</f>
+        <f t="shared" si="1"/>
         <v>39.6828</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1">
-        <f>(F14+O14+P14+R14)/Q14</f>
+        <f t="shared" si="2"/>
         <v>19.529871884040439</v>
       </c>
       <c r="V14" s="1">
-        <f>(F14+O14+P14)/Q14</f>
+        <f t="shared" si="3"/>
         <v>19.529871884040439</v>
       </c>
       <c r="W14" s="1">
@@ -2492,34 +2492,34 @@
         <v>48.760800000000003</v>
       </c>
       <c r="AE14" s="26">
-        <f>(Z14+AA14+AB14+AC14)*G14/4</f>
+        <f t="shared" si="4"/>
         <v>53.918199999999999</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AG14" s="1">
-        <f>G14*R14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH14" s="24">
-        <f>F14*G14</f>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="AI14" s="24">
-        <f>O14*G14</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AJ14" s="24">
-        <f>P14*G14</f>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="AK14" s="24">
-        <f>AE14</f>
+        <f t="shared" si="9"/>
         <v>53.918199999999999</v>
       </c>
       <c r="AL14" s="30">
-        <f>(AH14+AI14+AJ14+AM14)/AK14</f>
+        <f t="shared" si="10"/>
         <v>19.937609193185232</v>
       </c>
       <c r="AM14" s="24">
@@ -2566,7 +2566,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f>E15-K15</f>
+        <f t="shared" si="0"/>
         <v>206.001</v>
       </c>
       <c r="M15" s="1"/>
@@ -2578,18 +2578,18 @@
         <v>100</v>
       </c>
       <c r="Q15" s="1">
-        <f>E15/5</f>
+        <f t="shared" si="1"/>
         <v>41.200200000000002</v>
       </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1">
-        <f>(F15+O15+P15+R15)/Q15</f>
+        <f t="shared" si="2"/>
         <v>18.68922966393367</v>
       </c>
       <c r="V15" s="1">
-        <f>(F15+O15+P15)/Q15</f>
+        <f t="shared" si="3"/>
         <v>18.68922966393367</v>
       </c>
       <c r="W15" s="1">
@@ -2617,32 +2617,32 @@
         <v>43.379600000000003</v>
       </c>
       <c r="AE15" s="26">
-        <f>(Z15+AA15+AB15+AC15)*G15/4</f>
+        <f t="shared" si="4"/>
         <v>49.4923</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1">
-        <f>G15*R15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH15" s="24">
-        <f>F15*G15</f>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="AI15" s="24">
-        <f>O15*G15</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="AJ15" s="24">
-        <f>P15*G15</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AK15" s="24">
-        <f>AE15</f>
+        <f t="shared" si="9"/>
         <v>49.4923</v>
       </c>
       <c r="AL15" s="30">
-        <f>(AH15+AI15+AJ15+AM15)/AK15</f>
+        <f t="shared" si="10"/>
         <v>19.599008330588799</v>
       </c>
       <c r="AM15" s="24">
@@ -2691,7 +2691,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f>E16-K16</f>
+        <f t="shared" si="0"/>
         <v>767.971</v>
       </c>
       <c r="M16" s="1"/>
@@ -2703,7 +2703,7 @@
         <v>875</v>
       </c>
       <c r="Q16" s="1">
-        <f>E16/5</f>
+        <f t="shared" si="1"/>
         <v>153.5942</v>
       </c>
       <c r="R16" s="5">
@@ -2713,11 +2713,11 @@
       <c r="S16" s="5"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <f>(F16+O16+P16+R16)/Q16</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V16" s="1">
-        <f>(F16+O16+P16)/Q16</f>
+        <f t="shared" si="3"/>
         <v>10.742593144793227</v>
       </c>
       <c r="W16" s="1">
@@ -2745,32 +2745,32 @@
         <v>86.4</v>
       </c>
       <c r="AE16" s="26">
-        <f>(Z16+AA16+AB16+AC16)*G16/4</f>
+        <f t="shared" si="4"/>
         <v>40.840000000000003</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1">
-        <f>G16*R16</f>
+        <f t="shared" si="5"/>
         <v>445.87824000000001</v>
       </c>
       <c r="AH16" s="24">
-        <f>F16*G16</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AI16" s="24">
-        <f>O16*G16</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AJ16" s="24">
-        <f>P16*G16</f>
+        <f t="shared" si="11"/>
         <v>350</v>
       </c>
       <c r="AK16" s="24">
-        <f>AE16</f>
+        <f t="shared" si="9"/>
         <v>40.840000000000003</v>
       </c>
       <c r="AL16" s="30">
-        <f>(AH16+AI16+AJ16+AM16)/AK16</f>
+        <f t="shared" si="10"/>
         <v>25.954946131243876</v>
       </c>
       <c r="AM16" s="24">
@@ -2820,7 +2820,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f>E17-K17</f>
+        <f t="shared" si="0"/>
         <v>129.858</v>
       </c>
       <c r="M17" s="1"/>
@@ -2832,18 +2832,18 @@
         <v>255</v>
       </c>
       <c r="Q17" s="1">
-        <f>E17/5</f>
+        <f t="shared" si="1"/>
         <v>25.971600000000002</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1">
-        <f>(F17+O17+P17+R17)/Q17</f>
+        <f t="shared" si="2"/>
         <v>18.674244174405889</v>
       </c>
       <c r="V17" s="1">
-        <f>(F17+O17+P17)/Q17</f>
+        <f t="shared" si="3"/>
         <v>18.674244174405889</v>
       </c>
       <c r="W17" s="1">
@@ -2871,32 +2871,32 @@
         <v>25.124199999999998</v>
       </c>
       <c r="AE17" s="26">
-        <f>(Z17+AA17+AB17+AC17)*G17/4</f>
+        <f t="shared" si="4"/>
         <v>37.62415</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1">
-        <f>G17*R17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH17" s="24">
-        <f>F17*G17</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="AI17" s="24">
-        <f>O17*G17</f>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="AJ17" s="24">
-        <f>P17*G17</f>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
       <c r="AK17" s="24">
-        <f>AE17</f>
+        <f t="shared" si="9"/>
         <v>37.62415</v>
       </c>
       <c r="AL17" s="30">
-        <f>(AH17+AI17+AJ17+AM17)/AK17</f>
+        <f t="shared" si="10"/>
         <v>18.073498005935019</v>
       </c>
       <c r="AM17" s="24">
@@ -2945,7 +2945,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <f>E18-K18</f>
+        <f t="shared" si="0"/>
         <v>223.501</v>
       </c>
       <c r="M18" s="1"/>
@@ -2957,7 +2957,7 @@
         <v>210</v>
       </c>
       <c r="Q18" s="1">
-        <f>E18/5</f>
+        <f t="shared" si="1"/>
         <v>44.700200000000002</v>
       </c>
       <c r="R18" s="5">
@@ -2967,11 +2967,11 @@
       <c r="S18" s="5"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1">
-        <f>(F18+O18+P18+R18)/Q18</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="V18" s="1">
-        <f>(F18+O18+P18)/Q18</f>
+        <f t="shared" si="3"/>
         <v>8.9511903749871369</v>
       </c>
       <c r="W18" s="1">
@@ -2999,32 +2999,32 @@
         <v>31.167000000000002</v>
       </c>
       <c r="AE18" s="26">
-        <f>(Z18+AA18+AB18+AC18)*G18/4</f>
+        <f t="shared" si="4"/>
         <v>35.3429</v>
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1">
-        <f>G18*R18</f>
+        <f t="shared" si="5"/>
         <v>315.08320000000003</v>
       </c>
       <c r="AH18" s="24">
-        <f>F18*G18</f>
+        <f t="shared" si="6"/>
         <v>0.12</v>
       </c>
       <c r="AI18" s="24">
-        <f>O18*G18</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="AJ18" s="24">
-        <f>P18*G18</f>
+        <f t="shared" si="11"/>
         <v>210</v>
       </c>
       <c r="AK18" s="24">
-        <f>AE18</f>
+        <f t="shared" si="9"/>
         <v>35.3429</v>
       </c>
       <c r="AL18" s="30">
-        <f>(AH18+AI18+AJ18+AM18)/AK18</f>
+        <f t="shared" si="10"/>
         <v>21.224064805095225</v>
       </c>
       <c r="AM18" s="24">
@@ -3071,7 +3071,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <f>E19-K19</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="M19" s="1"/>
@@ -3083,7 +3083,7 @@
         <v>333.33333333333331</v>
       </c>
       <c r="Q19" s="1">
-        <f>E19/5</f>
+        <f t="shared" si="1"/>
         <v>75.599999999999994</v>
       </c>
       <c r="R19" s="5">
@@ -3093,11 +3093,11 @@
       <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1">
-        <f>(F19+O19+P19+R19)/Q19</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V19" s="1">
-        <f>(F19+O19+P19)/Q19</f>
+        <f t="shared" si="3"/>
         <v>12.727807172251618</v>
       </c>
       <c r="W19" s="1">
@@ -3125,32 +3125,32 @@
         <v>67.2</v>
       </c>
       <c r="AE19" s="26">
-        <f>(Z19+AA19+AB19+AC19)*G19/4</f>
+        <f t="shared" si="4"/>
         <v>33.097499999999997</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1">
-        <f>G19*R19</f>
+        <f t="shared" si="5"/>
         <v>179.36</v>
       </c>
       <c r="AH19" s="24">
-        <f>F19*G19</f>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="AI19" s="24">
-        <f>O19*G19</f>
+        <f t="shared" si="7"/>
         <v>130.00000000000003</v>
       </c>
       <c r="AJ19" s="24">
-        <f>P19*G19</f>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="AK19" s="24">
-        <f>AE19</f>
+        <f t="shared" si="9"/>
         <v>33.097499999999997</v>
       </c>
       <c r="AL19" s="30">
-        <f>(AH19+AI19+AJ19+AM19)/AK19</f>
+        <f t="shared" si="10"/>
         <v>18.21889870836166</v>
       </c>
       <c r="AM19" s="24">
@@ -3197,7 +3197,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <f>E20-K20</f>
+        <f t="shared" si="0"/>
         <v>72.513999999999996</v>
       </c>
       <c r="M20" s="1"/>
@@ -3209,18 +3209,18 @@
         <v>100</v>
       </c>
       <c r="Q20" s="1">
-        <f>E20/5</f>
+        <f t="shared" si="1"/>
         <v>14.502799999999999</v>
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1">
-        <f>(F20+O20+P20+R20)/Q20</f>
+        <f t="shared" si="2"/>
         <v>30.752682240670769</v>
       </c>
       <c r="V20" s="1">
-        <f>(F20+O20+P20)/Q20</f>
+        <f t="shared" si="3"/>
         <v>30.752682240670769</v>
       </c>
       <c r="W20" s="1">
@@ -3248,34 +3248,34 @@
         <v>17.350000000000001</v>
       </c>
       <c r="AE20" s="26">
-        <f>(Z20+AA20+AB20+AC20)*G20/4</f>
+        <f t="shared" si="4"/>
         <v>28.109200000000001</v>
       </c>
       <c r="AF20" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AG20" s="1">
-        <f>G20*R20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH20" s="24">
-        <f>F20*G20</f>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="AI20" s="24">
-        <f>O20*G20</f>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="AJ20" s="24">
-        <f>P20*G20</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AK20" s="24">
-        <f>AE20</f>
+        <f t="shared" si="9"/>
         <v>28.109200000000001</v>
       </c>
       <c r="AL20" s="30">
-        <f>(AH20+AI20+AJ20+AM20)/AK20</f>
+        <f t="shared" si="10"/>
         <v>18.001223798613974</v>
       </c>
       <c r="AM20" s="24">
@@ -3322,7 +3322,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <f>E21-K21</f>
+        <f t="shared" si="0"/>
         <v>72.171999999999997</v>
       </c>
       <c r="M21" s="1"/>
@@ -3334,18 +3334,18 @@
         <v>150</v>
       </c>
       <c r="Q21" s="1">
-        <f>E21/5</f>
+        <f t="shared" si="1"/>
         <v>14.4344</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1">
-        <f>(F21+O21+P21+R21)/Q21</f>
+        <f t="shared" si="2"/>
         <v>31.184046444604554</v>
       </c>
       <c r="V21" s="1">
-        <f>(F21+O21+P21)/Q21</f>
+        <f t="shared" si="3"/>
         <v>31.184046444604554</v>
       </c>
       <c r="W21" s="1">
@@ -3373,32 +3373,32 @@
         <v>24.505199999999999</v>
       </c>
       <c r="AE21" s="26">
-        <f>(Z21+AA21+AB21+AC21)*G21/4</f>
+        <f t="shared" si="4"/>
         <v>27.695999999999998</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1">
-        <f>G21*R21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH21" s="24">
-        <f>F21*G21</f>
+        <f t="shared" si="6"/>
         <v>0.123</v>
       </c>
       <c r="AI21" s="24">
-        <f>O21*G21</f>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AJ21" s="24">
-        <f>P21*G21</f>
+        <f t="shared" si="11"/>
         <v>150</v>
       </c>
       <c r="AK21" s="24">
-        <f>AE21</f>
+        <f t="shared" si="9"/>
         <v>27.695999999999998</v>
       </c>
       <c r="AL21" s="30">
-        <f>(AH21+AI21+AJ21+AM21)/AK21</f>
+        <f t="shared" si="10"/>
         <v>21.668219237435011</v>
       </c>
       <c r="AM21" s="24">
@@ -3445,7 +3445,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <f>E22-K22</f>
+        <f t="shared" si="0"/>
         <v>313</v>
       </c>
       <c r="M22" s="1"/>
@@ -3457,7 +3457,7 @@
         <v>400</v>
       </c>
       <c r="Q22" s="1">
-        <f>E22/5</f>
+        <f t="shared" si="1"/>
         <v>62.6</v>
       </c>
       <c r="R22" s="5">
@@ -3467,11 +3467,11 @@
       <c r="S22" s="5"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1">
-        <f>(F22+O22+P22+R22)/Q22</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V22" s="1">
-        <f>(F22+O22+P22)/Q22</f>
+        <f t="shared" si="3"/>
         <v>14.171611136467368</v>
       </c>
       <c r="W22" s="1">
@@ -3499,32 +3499,32 @@
         <v>59.2</v>
       </c>
       <c r="AE22" s="26">
-        <f>(Z22+AA22+AB22+AC22)*G22/4</f>
+        <f t="shared" si="4"/>
         <v>25.567499999999999</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1">
-        <f>G22*R22</f>
+        <f t="shared" si="5"/>
         <v>83.879999999999953</v>
       </c>
       <c r="AH22" s="24">
-        <f>F22*G22</f>
+        <f t="shared" si="6"/>
         <v>80.5</v>
       </c>
       <c r="AI22" s="24">
-        <f>O22*G22</f>
+        <f t="shared" si="7"/>
         <v>90.000000000000028</v>
       </c>
       <c r="AJ22" s="24">
-        <f>P22*G22</f>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="AK22" s="24">
-        <f>AE22</f>
+        <f t="shared" si="9"/>
         <v>25.567499999999999</v>
       </c>
       <c r="AL22" s="30">
-        <f>(AH22+AI22+AJ22+AM22)/AK22</f>
+        <f t="shared" si="10"/>
         <v>18.206707734428473</v>
       </c>
       <c r="AM22" s="24">
@@ -3572,7 +3572,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <f>E23-K23</f>
+        <f t="shared" si="0"/>
         <v>306.19600000000003</v>
       </c>
       <c r="M23" s="1"/>
@@ -3584,7 +3584,7 @@
         <v>400</v>
       </c>
       <c r="Q23" s="1">
-        <f>E23/5</f>
+        <f t="shared" si="1"/>
         <v>61.239200000000004</v>
       </c>
       <c r="R23" s="5">
@@ -3594,11 +3594,11 @@
       <c r="S23" s="5"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1">
-        <f>(F23+O23+P23+R23)/Q23</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V23" s="1">
-        <f>(F23+O23+P23)/Q23</f>
+        <f t="shared" si="3"/>
         <v>14.50518155504504</v>
       </c>
       <c r="W23" s="1">
@@ -3626,32 +3626,32 @@
         <v>59.6</v>
       </c>
       <c r="AE23" s="26">
-        <f>(Z23+AA23+AB23+AC23)*G23/4</f>
+        <f t="shared" si="4"/>
         <v>25.445</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1">
-        <f>G23*R23</f>
+        <f t="shared" si="5"/>
         <v>74.906960000000041</v>
       </c>
       <c r="AH23" s="24">
-        <f>F23*G23</f>
+        <f t="shared" si="6"/>
         <v>60.9</v>
       </c>
       <c r="AI23" s="24">
-        <f>O23*G23</f>
+        <f t="shared" si="7"/>
         <v>109.99999999999999</v>
       </c>
       <c r="AJ23" s="24">
-        <f>P23*G23</f>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="AK23" s="24">
-        <f>AE23</f>
+        <f t="shared" si="9"/>
         <v>25.445</v>
       </c>
       <c r="AL23" s="30">
-        <f>(AH23+AI23+AJ23+AM23)/AK23</f>
+        <f t="shared" si="10"/>
         <v>17.131067007270584</v>
       </c>
       <c r="AM23" s="24">
@@ -3698,7 +3698,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f>E24-K24</f>
+        <f t="shared" si="0"/>
         <v>77.534000000000006</v>
       </c>
       <c r="M24" s="1"/>
@@ -3710,18 +3710,18 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <f>E24/5</f>
+        <f t="shared" si="1"/>
         <v>15.506800000000002</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1">
-        <f>(F24+O24+P24+R24)/Q24</f>
+        <f t="shared" si="2"/>
         <v>19.346351278148937</v>
       </c>
       <c r="V24" s="1">
-        <f>(F24+O24+P24)/Q24</f>
+        <f t="shared" si="3"/>
         <v>19.346351278148937</v>
       </c>
       <c r="W24" s="1">
@@ -3749,32 +3749,32 @@
         <v>21.310600000000001</v>
       </c>
       <c r="AE24" s="26">
-        <f>(Z24+AA24+AB24+AC24)*G24/4</f>
+        <f t="shared" si="4"/>
         <v>24.99295</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1">
-        <f>G24*R24</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH24" s="24">
-        <f>F24*G24</f>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="AI24" s="24">
-        <f>O24*G24</f>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="AJ24" s="24">
-        <f>P24*G24</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK24" s="24">
-        <f>AE24</f>
+        <f t="shared" si="9"/>
         <v>24.99295</v>
       </c>
       <c r="AL24" s="30">
-        <f>(AH24+AI24+AJ24+AM24)/AK24</f>
+        <f t="shared" si="10"/>
         <v>18.005077431835776</v>
       </c>
       <c r="AM24" s="24">
@@ -3821,7 +3821,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <f>E25-K25</f>
+        <f t="shared" si="0"/>
         <v>102.745</v>
       </c>
       <c r="M25" s="1"/>
@@ -3833,7 +3833,7 @@
         <v>96</v>
       </c>
       <c r="Q25" s="1">
-        <f>E25/5</f>
+        <f t="shared" si="1"/>
         <v>20.548999999999999</v>
       </c>
       <c r="R25" s="5">
@@ -3843,11 +3843,11 @@
       <c r="S25" s="5"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1">
-        <f>(F25+O25+P25+R25)/Q25</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V25" s="1">
-        <f>(F25+O25+P25)/Q25</f>
+        <f t="shared" si="3"/>
         <v>13.917952211786462</v>
       </c>
       <c r="W25" s="1">
@@ -3875,34 +3875,34 @@
         <v>18.6174</v>
       </c>
       <c r="AE25" s="26">
-        <f>(Z25+AA25+AB25+AC25)*G25/4</f>
+        <f t="shared" si="4"/>
         <v>23.617999999999999</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AG25" s="1">
-        <f>G25*R25</f>
+        <f t="shared" si="5"/>
         <v>83.882000000000005</v>
       </c>
       <c r="AH25" s="24">
-        <f>F25*G25</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="AI25" s="24">
-        <f>O25*G25</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="AJ25" s="24">
-        <f>P25*G25</f>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="AK25" s="24">
-        <f>AE25</f>
+        <f t="shared" si="9"/>
         <v>23.617999999999999</v>
       </c>
       <c r="AL25" s="30">
-        <f>(AH25+AI25+AJ25+AM25)/AK25</f>
+        <f t="shared" si="10"/>
         <v>19.095605046998053</v>
       </c>
       <c r="AM25" s="24">
@@ -3949,7 +3949,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <f>E26-K26</f>
+        <f t="shared" si="0"/>
         <v>213</v>
       </c>
       <c r="M26" s="1"/>
@@ -3961,7 +3961,7 @@
         <v>244.4444444444444</v>
       </c>
       <c r="Q26" s="1">
-        <f>E26/5</f>
+        <f t="shared" si="1"/>
         <v>42.6</v>
       </c>
       <c r="R26" s="5">
@@ -3971,11 +3971,11 @@
       <c r="S26" s="5"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1">
-        <f>(F26+O26+P26+R26)/Q26</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V26" s="1">
-        <f>(F26+O26+P26)/Q26</f>
+        <f t="shared" si="3"/>
         <v>12.363067292644754</v>
       </c>
       <c r="W26" s="1">
@@ -4003,32 +4003,32 @@
         <v>45</v>
       </c>
       <c r="AE26" s="26">
-        <f>(Z26+AA26+AB26+AC26)*G26/4</f>
+        <f t="shared" si="4"/>
         <v>19.282499999999999</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1">
-        <f>G26*R26</f>
+        <f t="shared" si="5"/>
         <v>108.06000000000004</v>
       </c>
       <c r="AH26" s="24">
-        <f>F26*G26</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="AI26" s="24">
-        <f>O26*G26</f>
+        <f t="shared" si="7"/>
         <v>99.999999999999986</v>
       </c>
       <c r="AJ26" s="24">
-        <f>P26*G26</f>
+        <f t="shared" si="11"/>
         <v>109.99999999999999</v>
       </c>
       <c r="AK26" s="24">
-        <f>AE26</f>
+        <f t="shared" si="9"/>
         <v>19.282499999999999</v>
       </c>
       <c r="AL26" s="30">
-        <f>(AH26+AI26+AJ26+AM26)/AK26</f>
+        <f t="shared" si="10"/>
         <v>17.995591857902244</v>
       </c>
       <c r="AM26" s="24">
@@ -4075,7 +4075,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <f>E27-K27</f>
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="M27" s="1"/>
@@ -4087,7 +4087,7 @@
         <v>212.5</v>
       </c>
       <c r="Q27" s="1">
-        <f>E27/5</f>
+        <f t="shared" si="1"/>
         <v>51.4</v>
       </c>
       <c r="R27" s="5">
@@ -4097,11 +4097,11 @@
       <c r="S27" s="5"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1">
-        <f>(F27+O27+P27+R27)/Q27</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V27" s="1">
-        <f>(F27+O27+P27)/Q27</f>
+        <f t="shared" si="3"/>
         <v>11.3715953307393</v>
       </c>
       <c r="W27" s="1">
@@ -4129,32 +4129,32 @@
         <v>61</v>
       </c>
       <c r="AE27" s="26">
-        <f>(Z27+AA27+AB27+AC27)*G27/4</f>
+        <f t="shared" si="4"/>
         <v>18.240000000000002</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1">
-        <f>G27*R27</f>
+        <f t="shared" si="5"/>
         <v>136.27999999999997</v>
       </c>
       <c r="AH27" s="24">
-        <f>F27*G27</f>
+        <f t="shared" si="6"/>
         <v>88.800000000000011</v>
       </c>
       <c r="AI27" s="24">
-        <f>O27*G27</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="AJ27" s="24">
-        <f>P27*G27</f>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
       <c r="AK27" s="24">
-        <f>AE27</f>
+        <f t="shared" si="9"/>
         <v>18.240000000000002</v>
       </c>
       <c r="AL27" s="30">
-        <f>(AH27+AI27+AJ27+AM27)/AK27</f>
+        <f t="shared" si="10"/>
         <v>17.75219298245614</v>
       </c>
       <c r="AM27" s="24">
@@ -4202,7 +4202,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <f>E28-K28</f>
+        <f t="shared" si="0"/>
         <v>51.47</v>
       </c>
       <c r="M28" s="1"/>
@@ -4214,7 +4214,7 @@
         <v>120</v>
       </c>
       <c r="Q28" s="1">
-        <f>E28/5</f>
+        <f t="shared" si="1"/>
         <v>10.294</v>
       </c>
       <c r="R28" s="5">
@@ -4224,11 +4224,11 @@
       <c r="S28" s="5"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1">
-        <f>(F28+O28+P28+R28)/Q28</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V28" s="1">
-        <f>(F28+O28+P28)/Q28</f>
+        <f t="shared" si="3"/>
         <v>22.327958033806098</v>
       </c>
       <c r="W28" s="1">
@@ -4256,32 +4256,32 @@
         <v>26.3384</v>
       </c>
       <c r="AE28" s="26">
-        <f>(Z28+AA28+AB28+AC28)*G28/4</f>
+        <f t="shared" si="4"/>
         <v>17.389600000000002</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1">
-        <f>G28*R28</f>
+        <f t="shared" si="5"/>
         <v>-44.552</v>
       </c>
       <c r="AH28" s="24">
-        <f>F28*G28</f>
+        <f t="shared" si="6"/>
         <v>-0.156</v>
       </c>
       <c r="AI28" s="24">
-        <f>O28*G28</f>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="AJ28" s="24">
-        <f>P28*G28</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="AK28" s="24">
-        <f>AE28</f>
+        <f t="shared" si="9"/>
         <v>17.389600000000002</v>
       </c>
       <c r="AL28" s="30">
-        <f>(AH28+AI28+AJ28+AM28)/AK28</f>
+        <f t="shared" si="10"/>
         <v>18.680360675346183</v>
       </c>
       <c r="AM28" s="24">
@@ -4330,7 +4330,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <f>E29-K29</f>
+        <f t="shared" si="0"/>
         <v>255.03399999999999</v>
       </c>
       <c r="M29" s="1"/>
@@ -4342,18 +4342,18 @@
         <v>1000</v>
       </c>
       <c r="Q29" s="1">
-        <f>E29/5</f>
+        <f t="shared" si="1"/>
         <v>51.006799999999998</v>
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1">
-        <f>(F29+O29+P29+R29)/Q29</f>
+        <f t="shared" si="2"/>
         <v>30.114514143212279</v>
       </c>
       <c r="V29" s="1">
-        <f>(F29+O29+P29)/Q29</f>
+        <f t="shared" si="3"/>
         <v>30.114514143212279</v>
       </c>
       <c r="W29" s="1">
@@ -4381,32 +4381,32 @@
         <v>34</v>
       </c>
       <c r="AE29" s="26">
-        <f>(Z29+AA29+AB29+AC29)*G29/4</f>
+        <f t="shared" si="4"/>
         <v>17.260000000000002</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1">
-        <f>G29*R29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH29" s="24">
-        <f>F29*G29</f>
+        <f t="shared" si="6"/>
         <v>14.418000000000001</v>
       </c>
       <c r="AI29" s="24">
-        <f>O29*G29</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="AJ29" s="24">
-        <f>P29*G29</f>
+        <f t="shared" si="11"/>
         <v>400</v>
       </c>
       <c r="AK29" s="24">
-        <f>AE29</f>
+        <f t="shared" si="9"/>
         <v>17.260000000000002</v>
       </c>
       <c r="AL29" s="30">
-        <f>(AH29+AI29+AJ29+AM29)/AK29</f>
+        <f t="shared" si="10"/>
         <v>47.18528389339513</v>
       </c>
       <c r="AM29" s="24">
@@ -4455,7 +4455,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <f>E30-K30</f>
+        <f t="shared" si="0"/>
         <v>61.142000000000003</v>
       </c>
       <c r="M30" s="1"/>
@@ -4467,7 +4467,7 @@
         <v>110</v>
       </c>
       <c r="Q30" s="1">
-        <f>E30/5</f>
+        <f t="shared" si="1"/>
         <v>12.228400000000001</v>
       </c>
       <c r="R30" s="5">
@@ -4477,11 +4477,11 @@
       <c r="S30" s="5"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1">
-        <f>(F30+O30+P30+R30)/Q30</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V30" s="1">
-        <f>(F30+O30+P30)/Q30</f>
+        <f t="shared" si="3"/>
         <v>14.719832521016649</v>
       </c>
       <c r="W30" s="1">
@@ -4509,32 +4509,32 @@
         <v>20.826000000000001</v>
       </c>
       <c r="AE30" s="26">
-        <f>(Z30+AA30+AB30+AC30)*G30/4</f>
+        <f t="shared" si="4"/>
         <v>16.903299999999998</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1">
-        <f>G30*R30</f>
+        <f t="shared" si="5"/>
         <v>40.111199999999997</v>
       </c>
       <c r="AH30" s="24">
-        <f>F30*G30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI30" s="24">
-        <f>O30*G30</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="AJ30" s="24">
-        <f>P30*G30</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
       <c r="AK30" s="24">
-        <f>AE30</f>
+        <f t="shared" si="9"/>
         <v>16.903299999999998</v>
       </c>
       <c r="AL30" s="30">
-        <f>(AH30+AI30+AJ30+AM30)/AK30</f>
+        <f t="shared" si="10"/>
         <v>19.818615299971015</v>
       </c>
       <c r="AM30" s="24">
@@ -4581,7 +4581,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <f>E31-K31</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="M31" s="1"/>
@@ -4593,7 +4593,7 @@
         <v>125</v>
       </c>
       <c r="Q31" s="1">
-        <f>E31/5</f>
+        <f t="shared" si="1"/>
         <v>47.8</v>
       </c>
       <c r="R31" s="5">
@@ -4603,11 +4603,11 @@
       <c r="S31" s="5"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1">
-        <f>(F31+O31+P31+R31)/Q31</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V31" s="1">
-        <f>(F31+O31+P31)/Q31</f>
+        <f t="shared" si="3"/>
         <v>10.041841004184102</v>
       </c>
       <c r="W31" s="1">
@@ -4635,32 +4635,32 @@
         <v>41.8</v>
       </c>
       <c r="AE31" s="26">
-        <f>(Z31+AA31+AB31+AC31)*G31/4</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1">
-        <f>G31*R31</f>
+        <f t="shared" si="5"/>
         <v>152.16</v>
       </c>
       <c r="AH31" s="24">
-        <f>F31*G31</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="AI31" s="24">
-        <f>O31*G31</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AJ31" s="24">
-        <f>P31*G31</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="AK31" s="24">
-        <f>AE31</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AL31" s="30">
-        <f>(AH31+AI31+AJ31+AM31)/AK31</f>
+        <f t="shared" si="10"/>
         <v>17.625</v>
       </c>
       <c r="AM31" s="24">
@@ -4707,7 +4707,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <f>E32-K32</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="M32" s="1"/>
@@ -4719,7 +4719,7 @@
         <v>162.5</v>
       </c>
       <c r="Q32" s="1">
-        <f>E32/5</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="R32" s="5">
@@ -4729,11 +4729,11 @@
       <c r="S32" s="5"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1">
-        <f>(F32+O32+P32+R32)/Q32</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V32" s="1">
-        <f>(F32+O32+P32)/Q32</f>
+        <f t="shared" si="3"/>
         <v>16.018518518518519</v>
       </c>
       <c r="W32" s="1">
@@ -4761,32 +4761,32 @@
         <v>24.8</v>
       </c>
       <c r="AE32" s="26">
-        <f>(Z32+AA32+AB32+AC32)*G32/4</f>
+        <f t="shared" si="4"/>
         <v>13.8</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1">
-        <f>G32*R32</f>
+        <f t="shared" si="5"/>
         <v>21.400000000000002</v>
       </c>
       <c r="AH32" s="24">
-        <f>F32*G32</f>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="AI32" s="24">
-        <f>O32*G32</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ32" s="24">
-        <f>P32*G32</f>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="AK32" s="24">
-        <f>AE32</f>
+        <f t="shared" si="9"/>
         <v>13.8</v>
       </c>
       <c r="AL32" s="30">
-        <f>(AH32+AI32+AJ32+AM32)/AK32</f>
+        <f t="shared" si="10"/>
         <v>18.333333333333332</v>
       </c>
       <c r="AM32" s="24">
@@ -4833,7 +4833,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <f>E33-K33</f>
+        <f t="shared" si="0"/>
         <v>49.859000000000002</v>
       </c>
       <c r="M33" s="1"/>
@@ -4845,18 +4845,18 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <f>E33/5</f>
+        <f t="shared" si="1"/>
         <v>9.9718</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1">
-        <f>(F33+O33+P33+R33)/Q33</f>
+        <f t="shared" si="2"/>
         <v>18.150083234721915</v>
       </c>
       <c r="V33" s="1">
-        <f>(F33+O33+P33)/Q33</f>
+        <f t="shared" si="3"/>
         <v>18.150083234721915</v>
       </c>
       <c r="W33" s="1">
@@ -4884,32 +4884,32 @@
         <v>10.917</v>
       </c>
       <c r="AE33" s="26">
-        <f>(Z33+AA33+AB33+AC33)*G33/4</f>
+        <f t="shared" si="4"/>
         <v>13.72335</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1">
-        <f>G33*R33</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH33" s="24">
-        <f>F33*G33</f>
+        <f t="shared" si="6"/>
         <v>80.989000000000004</v>
       </c>
       <c r="AI33" s="24">
-        <f>O33*G33</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AJ33" s="24">
-        <f>P33*G33</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK33" s="24">
-        <f>AE33</f>
+        <f t="shared" si="9"/>
         <v>13.72335</v>
       </c>
       <c r="AL33" s="30">
-        <f>(AH33+AI33+AJ33+AM33)/AK33</f>
+        <f t="shared" si="10"/>
         <v>18.289193236345355</v>
       </c>
       <c r="AM33" s="24">
@@ -4956,7 +4956,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <f>E34-K34</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="M34" s="1"/>
@@ -4968,7 +4968,7 @@
         <v>187.5</v>
       </c>
       <c r="Q34" s="1">
-        <f>E34/5</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="R34" s="5">
@@ -4978,11 +4978,11 @@
       <c r="S34" s="5"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1">
-        <f>(F34+O34+P34+R34)/Q34</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V34" s="1">
-        <f>(F34+O34+P34)/Q34</f>
+        <f t="shared" si="3"/>
         <v>15.096153846153847</v>
       </c>
       <c r="W34" s="1">
@@ -5010,32 +5010,32 @@
         <v>25.8</v>
       </c>
       <c r="AE34" s="26">
-        <f>(Z34+AA34+AB34+AC34)*G34/4</f>
+        <f t="shared" si="4"/>
         <v>12.9</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1">
-        <f>G34*R34</f>
+        <f t="shared" si="5"/>
         <v>30.200000000000003</v>
       </c>
       <c r="AH34" s="24">
-        <f>F34*G34</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="AI34" s="24">
-        <f>O34*G34</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="AJ34" s="24">
-        <f>P34*G34</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="AK34" s="24">
-        <f>AE34</f>
+        <f t="shared" si="9"/>
         <v>12.9</v>
       </c>
       <c r="AL34" s="30">
-        <f>(AH34+AI34+AJ34+AM34)/AK34</f>
+        <f t="shared" si="10"/>
         <v>18.372093023255815</v>
       </c>
       <c r="AM34" s="24">
@@ -5082,7 +5082,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <f>E35-K35</f>
+        <f t="shared" si="0"/>
         <v>2.5259999999999998</v>
       </c>
       <c r="M35" s="1"/>
@@ -5094,18 +5094,18 @@
         <v>15</v>
       </c>
       <c r="Q35" s="1">
-        <f>E35/5</f>
+        <f t="shared" si="1"/>
         <v>0.50519999999999998</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1">
-        <f>(F35+O35+P35+R35)/Q35</f>
+        <f t="shared" si="2"/>
         <v>334.37054631828983</v>
       </c>
       <c r="V35" s="1">
-        <f>(F35+O35+P35)/Q35</f>
+        <f t="shared" si="3"/>
         <v>334.37054631828983</v>
       </c>
       <c r="W35" s="1">
@@ -5133,34 +5133,34 @@
         <v>7.4922000000000004</v>
       </c>
       <c r="AE35" s="26">
-        <f>(Z35+AA35+AB35+AC35)*G35/4</f>
+        <f t="shared" si="4"/>
         <v>12.1798</v>
       </c>
       <c r="AF35" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AG35" s="1">
-        <f>G35*R35</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH35" s="24">
-        <f>F35*G35</f>
+        <f t="shared" si="6"/>
         <v>103.92400000000001</v>
       </c>
       <c r="AI35" s="24">
-        <f>O35*G35</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AJ35" s="24">
-        <f>P35*G35</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="AK35" s="24">
-        <f>AE35</f>
+        <f t="shared" si="9"/>
         <v>12.1798</v>
       </c>
       <c r="AL35" s="30">
-        <f>(AH35+AI35+AJ35+AM35)/AK35</f>
+        <f t="shared" si="10"/>
         <v>17.974350974564445</v>
       </c>
       <c r="AM35" s="24">
@@ -5207,7 +5207,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <f>E36-K36</f>
+        <f t="shared" si="0"/>
         <v>68.936999999999998</v>
       </c>
       <c r="M36" s="1"/>
@@ -5219,7 +5219,7 @@
         <v>60</v>
       </c>
       <c r="Q36" s="1">
-        <f>E36/5</f>
+        <f t="shared" si="1"/>
         <v>13.7874</v>
       </c>
       <c r="R36" s="5">
@@ -5229,11 +5229,11 @@
       <c r="S36" s="5"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1">
-        <f>(F36+O36+P36+R36)/Q36</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V36" s="1">
-        <f>(F36+O36+P36)/Q36</f>
+        <f t="shared" si="3"/>
         <v>10.473983492174014</v>
       </c>
       <c r="W36" s="1">
@@ -5261,32 +5261,32 @@
         <v>6.2881999999999998</v>
       </c>
       <c r="AE36" s="26">
-        <f>(Z36+AA36+AB36+AC36)*G36/4</f>
+        <f t="shared" si="4"/>
         <v>11.2509</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1">
-        <f>G36*R36</f>
+        <f t="shared" si="5"/>
         <v>103.7642</v>
       </c>
       <c r="AH36" s="24">
-        <f>F36*G36</f>
+        <f t="shared" si="6"/>
         <v>84.409000000000006</v>
       </c>
       <c r="AI36" s="24">
-        <f>O36*G36</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="24">
-        <f>P36*G36</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="AK36" s="24">
-        <f>AE36</f>
+        <f t="shared" si="9"/>
         <v>11.2509</v>
       </c>
       <c r="AL36" s="30">
-        <f>(AH36+AI36+AJ36+AM36)/AK36</f>
+        <f t="shared" si="10"/>
         <v>18.168235430054484</v>
       </c>
       <c r="AM36" s="24">
@@ -5333,7 +5333,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <f>E37-K37</f>
+        <f t="shared" si="0"/>
         <v>83.971000000000004</v>
       </c>
       <c r="M37" s="1"/>
@@ -5345,7 +5345,7 @@
         <v>75</v>
       </c>
       <c r="Q37" s="1">
-        <f>E37/5</f>
+        <f t="shared" si="1"/>
         <v>16.7942</v>
       </c>
       <c r="R37" s="5">
@@ -5355,11 +5355,11 @@
       <c r="S37" s="5"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1">
-        <f>(F37+O37+P37+R37)/Q37</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="V37" s="1">
-        <f>(F37+O37+P37)/Q37</f>
+        <f t="shared" si="3"/>
         <v>4.9421824201212328</v>
       </c>
       <c r="W37" s="1">
@@ -5387,32 +5387,32 @@
         <v>18.319800000000001</v>
       </c>
       <c r="AE37" s="26">
-        <f>(Z37+AA37+AB37+AC37)*G37/4</f>
+        <f t="shared" si="4"/>
         <v>10.860099999999999</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1">
-        <f>G37*R37</f>
+        <f t="shared" si="5"/>
         <v>118.53039999999999</v>
       </c>
       <c r="AH37" s="24">
-        <f>F37*G37</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="AI37" s="24">
-        <f>O37*G37</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ37" s="24">
-        <f>P37*G37</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="AK37" s="24">
-        <f>AE37</f>
+        <f t="shared" si="9"/>
         <v>10.860099999999999</v>
       </c>
       <c r="AL37" s="30">
-        <f>(AH37+AI37+AJ37+AM37)/AK37</f>
+        <f t="shared" si="10"/>
         <v>17.771475400779</v>
       </c>
       <c r="AM37" s="24">
@@ -5459,7 +5459,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <f>E38-K38</f>
+        <f t="shared" ref="L38:L69" si="12">E38-K38</f>
         <v>36.225000000000001</v>
       </c>
       <c r="M38" s="1"/>
@@ -5471,18 +5471,18 @@
         <v>65</v>
       </c>
       <c r="Q38" s="1">
-        <f>E38/5</f>
+        <f t="shared" ref="Q38:Q66" si="13">E38/5</f>
         <v>7.2450000000000001</v>
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1">
-        <f>(F38+O38+P38+R38)/Q38</f>
+        <f t="shared" ref="U38:U66" si="14">(F38+O38+P38+R38)/Q38</f>
         <v>20.073429951690823</v>
       </c>
       <c r="V38" s="1">
-        <f>(F38+O38+P38)/Q38</f>
+        <f t="shared" ref="V38:V66" si="15">(F38+O38+P38)/Q38</f>
         <v>20.073429951690823</v>
       </c>
       <c r="W38" s="1">
@@ -5510,34 +5510,34 @@
         <v>13.2996</v>
       </c>
       <c r="AE38" s="26">
-        <f>(Z38+AA38+AB38+AC38)*G38/4</f>
+        <f t="shared" ref="AE38:AE66" si="16">(Z38+AA38+AB38+AC38)*G38/4</f>
         <v>10.758749999999999</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AG38" s="1">
-        <f>G38*R38</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH38" s="24">
-        <f>F38*G38</f>
+        <f t="shared" ref="AH38:AH66" si="17">F38*G38</f>
         <v>0.432</v>
       </c>
       <c r="AI38" s="24">
-        <f>O38*G38</f>
+        <f t="shared" ref="AI38:AI66" si="18">O38*G38</f>
         <v>80</v>
       </c>
       <c r="AJ38" s="24">
-        <f>P38*G38</f>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="AK38" s="24">
-        <f>AE38</f>
+        <f t="shared" ref="AK38:AK66" si="19">AE38</f>
         <v>10.758749999999999</v>
       </c>
       <c r="AL38" s="30">
-        <f>(AH38+AI38+AJ38+AM38)/AK38</f>
+        <f t="shared" ref="AL38:AL69" si="20">(AH38+AI38+AJ38+AM38)/AK38</f>
         <v>18.629673521552228</v>
       </c>
       <c r="AM38" s="24">
@@ -5584,7 +5584,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <f>E39-K39</f>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="M39" s="1"/>
@@ -5596,18 +5596,18 @@
         <v>166.66666666666671</v>
       </c>
       <c r="Q39" s="1">
-        <f>E39/5</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1">
-        <f>(F39+O39+P39+R39)/Q39</f>
+        <f t="shared" si="14"/>
         <v>22.13675213675214</v>
       </c>
       <c r="V39" s="1">
-        <f>(F39+O39+P39)/Q39</f>
+        <f t="shared" si="15"/>
         <v>22.13675213675214</v>
       </c>
       <c r="W39" s="1">
@@ -5635,32 +5635,32 @@
         <v>25.8</v>
       </c>
       <c r="AE39" s="26">
-        <f>(Z39+AA39+AB39+AC39)*G39/4</f>
+        <f t="shared" si="16"/>
         <v>10.26</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
-        <f>G39*R39</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH39" s="24">
-        <f>F39*G39</f>
+        <f t="shared" si="17"/>
         <v>4.5</v>
       </c>
       <c r="AI39" s="24">
-        <f>O39*G39</f>
+        <f t="shared" si="18"/>
         <v>49.999999999999993</v>
       </c>
       <c r="AJ39" s="24">
-        <f>P39*G39</f>
+        <f t="shared" si="11"/>
         <v>75.000000000000028</v>
       </c>
       <c r="AK39" s="24">
-        <f>AE39</f>
+        <f t="shared" si="19"/>
         <v>10.26</v>
       </c>
       <c r="AL39" s="30">
-        <f>(AH39+AI39+AJ39+AM39)/AK39</f>
+        <f t="shared" si="20"/>
         <v>17.98245614035088</v>
       </c>
       <c r="AM39" s="24">
@@ -5707,7 +5707,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <f>E40-K40</f>
+        <f t="shared" si="12"/>
         <v>82</v>
       </c>
       <c r="M40" s="1"/>
@@ -5719,7 +5719,7 @@
         <v>100</v>
       </c>
       <c r="Q40" s="1">
-        <f>E40/5</f>
+        <f t="shared" si="13"/>
         <v>16.399999999999999</v>
       </c>
       <c r="R40" s="5">
@@ -5729,11 +5729,11 @@
       <c r="S40" s="5"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1">
-        <f>(F40+O40+P40+R40)/Q40</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="V40" s="1">
-        <f>(F40+O40+P40)/Q40</f>
+        <f t="shared" si="15"/>
         <v>14.494773519163765</v>
       </c>
       <c r="W40" s="1">
@@ -5761,32 +5761,32 @@
         <v>22.2</v>
       </c>
       <c r="AE40" s="26">
-        <f>(Z40+AA40+AB40+AC40)*G40/4</f>
+        <f t="shared" si="16"/>
         <v>6.964999999999999</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1">
-        <f>G40*R40</f>
+        <f t="shared" si="5"/>
         <v>20.11999999999999</v>
       </c>
       <c r="AH40" s="24">
-        <f>F40*G40</f>
+        <f t="shared" si="17"/>
         <v>18.2</v>
       </c>
       <c r="AI40" s="24">
-        <f>O40*G40</f>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="AJ40" s="24">
-        <f>P40*G40</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="AK40" s="24">
-        <f>AE40</f>
+        <f t="shared" si="19"/>
         <v>6.964999999999999</v>
       </c>
       <c r="AL40" s="30">
-        <f>(AH40+AI40+AJ40+AM40)/AK40</f>
+        <f t="shared" si="20"/>
         <v>18.406317300789663</v>
       </c>
       <c r="AM40" s="24">
@@ -5834,7 +5834,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <f>E41-K41</f>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="M41" s="1"/>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <f>E41/5</f>
+        <f t="shared" si="13"/>
         <v>6.4</v>
       </c>
       <c r="R41" s="5">
@@ -5856,11 +5856,11 @@
       <c r="S41" s="5"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1">
-        <f>(F41+O41+P41+R41)/Q41</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="V41" s="1">
-        <f>(F41+O41+P41)/Q41</f>
+        <f t="shared" si="15"/>
         <v>18.75</v>
       </c>
       <c r="W41" s="1">
@@ -5888,32 +5888,32 @@
         <v>23.6</v>
       </c>
       <c r="AE41" s="26">
-        <f>(Z41+AA41+AB41+AC41)*G41/4</f>
+        <f t="shared" si="16"/>
         <v>6.5</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1">
-        <f>G41*R41</f>
+        <f t="shared" si="5"/>
         <v>-2.3999999999999986</v>
       </c>
       <c r="AH41" s="24">
-        <f>F41*G41</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AI41" s="24">
-        <f>O41*G41</f>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="AJ41" s="24">
-        <f>P41*G41</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK41" s="24">
-        <f>AE41</f>
+        <f t="shared" si="19"/>
         <v>6.5</v>
       </c>
       <c r="AL41" s="30">
-        <f>(AH41+AI41+AJ41+AM41)/AK41</f>
+        <f t="shared" si="20"/>
         <v>17.692307692307693</v>
       </c>
       <c r="AM41" s="24">
@@ -5958,7 +5958,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <f>E42-K42</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M42" s="1"/>
@@ -5970,18 +5970,18 @@
         <v>25</v>
       </c>
       <c r="Q42" s="1">
-        <f>E42/5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1" t="e">
-        <f>(F42+O42+P42+R42)/Q42</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V42" s="1" t="e">
-        <f>(F42+O42+P42)/Q42</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W42" s="1">
@@ -6009,34 +6009,34 @@
         <v>20</v>
       </c>
       <c r="AE42" s="26">
-        <f>(Z42+AA42+AB42+AC42)*G42/4</f>
+        <f t="shared" si="16"/>
         <v>6.3299999999999992</v>
       </c>
       <c r="AF42" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AG42" s="1">
-        <f>G42*R42</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH42" s="24">
-        <f>F42*G42</f>
+        <f t="shared" si="17"/>
         <v>4.8</v>
       </c>
       <c r="AI42" s="24">
-        <f>O42*G42</f>
+        <f t="shared" si="18"/>
         <v>50.000000000000007</v>
       </c>
       <c r="AJ42" s="24">
-        <f>P42*G42</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="AK42" s="24">
-        <f>AE42</f>
+        <f t="shared" si="19"/>
         <v>6.3299999999999992</v>
       </c>
       <c r="AL42" s="30">
-        <f>(AH42+AI42+AJ42+AM42)/AK42</f>
+        <f t="shared" si="20"/>
         <v>18.13586097946288</v>
       </c>
       <c r="AM42" s="24">
@@ -6083,7 +6083,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <f>E43-K43</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="M43" s="1"/>
@@ -6095,7 +6095,7 @@
         <v>87.5</v>
       </c>
       <c r="Q43" s="1">
-        <f>E43/5</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="R43" s="5">
@@ -6105,11 +6105,11 @@
       <c r="S43" s="5"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1">
-        <f>(F43+O43+P43+R43)/Q43</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="V43" s="1">
-        <f>(F43+O43+P43)/Q43</f>
+        <f t="shared" si="15"/>
         <v>13.5</v>
       </c>
       <c r="W43" s="1">
@@ -6137,34 +6137,34 @@
         <v>13</v>
       </c>
       <c r="AE43" s="26">
-        <f>(Z43+AA43+AB43+AC43)*G43/4</f>
+        <f t="shared" si="16"/>
         <v>5.38</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AG43" s="1">
-        <f>G43*R43</f>
+        <f t="shared" si="5"/>
         <v>19.8</v>
       </c>
       <c r="AH43" s="24">
-        <f>F43*G43</f>
+        <f t="shared" si="17"/>
         <v>24.400000000000002</v>
       </c>
       <c r="AI43" s="24">
-        <f>O43*G43</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="24">
-        <f>P43*G43</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="AK43" s="24">
-        <f>AE43</f>
+        <f t="shared" si="19"/>
         <v>5.38</v>
       </c>
       <c r="AL43" s="30">
-        <f>(AH43+AI43+AJ43+AM43)/AK43</f>
+        <f t="shared" si="20"/>
         <v>17.54646840148699</v>
       </c>
       <c r="AM43" s="24">
@@ -6211,7 +6211,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <f>E44-K44</f>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="M44" s="1"/>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <f>E44/5</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="R44" s="5">
@@ -6233,11 +6233,11 @@
       <c r="S44" s="5"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1">
-        <f>(F44+O44+P44+R44)/Q44</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="V44" s="1">
-        <f>(F44+O44+P44)/Q44</f>
+        <f t="shared" si="15"/>
         <v>11.538461538461538</v>
       </c>
       <c r="W44" s="1">
@@ -6265,32 +6265,32 @@
         <v>18.399999999999999</v>
       </c>
       <c r="AE44" s="26">
-        <f>(Z44+AA44+AB44+AC44)*G44/4</f>
+        <f t="shared" si="16"/>
         <v>5.0750000000000002</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1">
-        <f>G44*R44</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="AH44" s="24">
-        <f>F44*G44</f>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="AI44" s="24">
-        <f>O44*G44</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ44" s="24">
-        <f>P44*G44</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK44" s="24">
-        <f>AE44</f>
+        <f t="shared" si="19"/>
         <v>5.0750000000000002</v>
       </c>
       <c r="AL44" s="30">
-        <f>(AH44+AI44+AJ44+AM44)/AK44</f>
+        <f t="shared" si="20"/>
         <v>17.733990147783249</v>
       </c>
       <c r="AM44" s="24">
@@ -6337,7 +6337,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <f>E45-K45</f>
+        <f t="shared" si="12"/>
         <v>-6.9009999999999998</v>
       </c>
       <c r="M45" s="1"/>
@@ -6349,18 +6349,18 @@
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <f>E45/5</f>
+        <f t="shared" si="13"/>
         <v>-1.3801999999999999</v>
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1">
-        <f>(F45+O45+P45+R45)/Q45</f>
+        <f t="shared" si="14"/>
         <v>-45.710766555571666</v>
       </c>
       <c r="V45" s="1">
-        <f>(F45+O45+P45)/Q45</f>
+        <f t="shared" si="15"/>
         <v>-45.710766555571666</v>
       </c>
       <c r="W45" s="1">
@@ -6388,34 +6388,34 @@
         <v>3.5133999999999999</v>
       </c>
       <c r="AE45" s="26">
-        <f>(Z45+AA45+AB45+AC45)*G45/4</f>
+        <f t="shared" si="16"/>
         <v>4.9914000000000005</v>
       </c>
       <c r="AF45" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AG45" s="1">
-        <f>G45*R45</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH45" s="24">
-        <f>F45*G45</f>
+        <f t="shared" si="17"/>
         <v>63.09</v>
       </c>
       <c r="AI45" s="24">
-        <f>O45*G45</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="24">
-        <f>P45*G45</f>
+        <f t="shared" ref="AJ45:AJ66" si="21">P45*G45</f>
         <v>0</v>
       </c>
       <c r="AK45" s="24">
-        <f>AE45</f>
+        <f t="shared" si="19"/>
         <v>4.9914000000000005</v>
       </c>
       <c r="AL45" s="30">
-        <f>(AH45+AI45+AJ45+AM45)/AK45</f>
+        <f t="shared" si="20"/>
         <v>17.648355170893936</v>
       </c>
       <c r="AM45" s="24">
@@ -6463,7 +6463,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <f>E46-K46</f>
+        <f t="shared" si="12"/>
         <v>174</v>
       </c>
       <c r="M46" s="1"/>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <f>E46/5</f>
+        <f t="shared" si="13"/>
         <v>34.799999999999997</v>
       </c>
       <c r="R46" s="5">
@@ -6485,11 +6485,11 @@
       <c r="S46" s="5"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1">
-        <f>(F46+O46+P46+R46)/Q46</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="V46" s="1">
-        <f>(F46+O46+P46)/Q46</f>
+        <f t="shared" si="15"/>
         <v>0.43103448275862072</v>
       </c>
       <c r="W46" s="1">
@@ -6517,32 +6517,32 @@
         <v>14.6</v>
       </c>
       <c r="AE46" s="26">
-        <f>(Z46+AA46+AB46+AC46)*G46/4</f>
+        <f t="shared" si="16"/>
         <v>2.125</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1">
-        <f>G46*R46</f>
+        <f t="shared" si="5"/>
         <v>44.777999999999999</v>
       </c>
       <c r="AH46" s="24">
-        <f>F46*G46</f>
+        <f t="shared" si="17"/>
         <v>2.5500000000000003</v>
       </c>
       <c r="AI46" s="24">
-        <f>O46*G46</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="24">
-        <f>P46*G46</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK46" s="24">
-        <f>AE46</f>
+        <f t="shared" si="19"/>
         <v>2.125</v>
       </c>
       <c r="AL46" s="30">
-        <f>(AH46+AI46+AJ46+AM46)/AK46</f>
+        <f t="shared" si="20"/>
         <v>17.670588235294115</v>
       </c>
       <c r="AM46" s="24">
@@ -6589,7 +6589,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1">
-        <f>E47-K47</f>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="M47" s="1"/>
@@ -6601,18 +6601,18 @@
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <f>E47/5</f>
+        <f t="shared" si="13"/>
         <v>11.4</v>
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1">
-        <f>(F47+O47+P47+R47)/Q47</f>
+        <f t="shared" si="14"/>
         <v>26.315789473684209</v>
       </c>
       <c r="V47" s="1">
-        <f>(F47+O47+P47)/Q47</f>
+        <f t="shared" si="15"/>
         <v>26.315789473684209</v>
       </c>
       <c r="W47" s="1">
@@ -6640,34 +6640,34 @@
         <v>13.6</v>
       </c>
       <c r="AE47" s="26">
-        <f>(Z47+AA47+AB47+AC47)*G47/4</f>
+        <f t="shared" si="16"/>
         <v>1.3855000000000002</v>
       </c>
       <c r="AF47" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AG47" s="1">
-        <f>G47*R47</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH47" s="24">
-        <f>F47*G47</f>
+        <f t="shared" si="17"/>
         <v>51.000000000000007</v>
       </c>
       <c r="AI47" s="24">
-        <f>O47*G47</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="24">
-        <f>P47*G47</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK47" s="24">
-        <f>AE47</f>
+        <f t="shared" si="19"/>
         <v>1.3855000000000002</v>
       </c>
       <c r="AL47" s="30">
-        <f>(AH47+AI47+AJ47+AM47)/AK47</f>
+        <f t="shared" si="20"/>
         <v>36.809815950920246</v>
       </c>
       <c r="AM47" s="24"/>
@@ -6712,7 +6712,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <f>E48-K48</f>
+        <f t="shared" si="12"/>
         <v>2.4089999999999998</v>
       </c>
       <c r="M48" s="1"/>
@@ -6724,18 +6724,18 @@
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <f>E48/5</f>
+        <f t="shared" si="13"/>
         <v>0.48179999999999995</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1">
-        <f>(F48+O48+P48+R48)/Q48</f>
+        <f t="shared" si="14"/>
         <v>86.780821917808225</v>
       </c>
       <c r="V48" s="1">
-        <f>(F48+O48+P48)/Q48</f>
+        <f t="shared" si="15"/>
         <v>86.780821917808225</v>
       </c>
       <c r="W48" s="1">
@@ -6763,34 +6763,34 @@
         <v>0.9870000000000001</v>
       </c>
       <c r="AE48" s="26">
-        <f>(Z48+AA48+AB48+AC48)*G48/4</f>
+        <f t="shared" si="16"/>
         <v>0.87829999999999997</v>
       </c>
       <c r="AF48" s="21" t="s">
         <v>114</v>
       </c>
       <c r="AG48" s="1">
-        <f>G48*R48</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH48" s="24">
-        <f>F48*G48</f>
+        <f t="shared" si="17"/>
         <v>41.811</v>
       </c>
       <c r="AI48" s="24">
-        <f>O48*G48</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ48" s="24">
-        <f>P48*G48</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK48" s="24">
-        <f>AE48</f>
+        <f t="shared" si="19"/>
         <v>0.87829999999999997</v>
       </c>
       <c r="AL48" s="30">
-        <f>(AH48+AI48+AJ48+AM48)/AK48</f>
+        <f t="shared" si="20"/>
         <v>47.604463167482642</v>
       </c>
       <c r="AM48" s="24"/>
@@ -6833,7 +6833,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10">
-        <f>E49-K49</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M49" s="10"/>
@@ -6841,18 +6841,18 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10">
-        <f>E49/5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10" t="e">
-        <f>(F49+O49+P49+R49)/Q49</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V49" s="10" t="e">
-        <f>(F49+O49+P49)/Q49</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W49" s="10">
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="AE49" s="26">
-        <f>(Z49+AA49+AB49+AC49)*G49/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF49" s="10" t="s">
@@ -6888,23 +6888,23 @@
       </c>
       <c r="AG49" s="10"/>
       <c r="AH49" s="24">
-        <f>F49*G49</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI49" s="24">
-        <f>O49*G49</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ49" s="24">
-        <f>P49*G49</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK49" s="24">
-        <f>AE49</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL49" s="30" t="e">
-        <f>(AH49+AI49+AJ49+AM49)/AK49</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM49" s="24"/>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10">
-        <f>E50-K50</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M50" s="10"/>
@@ -6955,18 +6955,18 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10">
-        <f>E50/5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10" t="e">
-        <f>(F50+O50+P50+R50)/Q50</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V50" s="10" t="e">
-        <f>(F50+O50+P50)/Q50</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W50" s="10">
@@ -6994,29 +6994,29 @@
         <v>0</v>
       </c>
       <c r="AE50" s="26">
-        <f>(Z50+AA50+AB50+AC50)*G50/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF50" s="10"/>
       <c r="AG50" s="10"/>
       <c r="AH50" s="24">
-        <f>F50*G50</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI50" s="24">
-        <f>O50*G50</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ50" s="24">
-        <f>P50*G50</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK50" s="24">
-        <f>AE50</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL50" s="29" t="e">
-        <f>(AH50+AI50+AJ50+AM50)/AK50</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM50" s="24"/>
@@ -7057,7 +7057,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10">
-        <f>E51-K51</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M51" s="10"/>
@@ -7065,18 +7065,18 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10">
-        <f>E51/5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10" t="e">
-        <f>(F51+O51+P51+R51)/Q51</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V51" s="10" t="e">
-        <f>(F51+O51+P51)/Q51</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W51" s="10">
@@ -7104,29 +7104,29 @@
         <v>0</v>
       </c>
       <c r="AE51" s="26">
-        <f>(Z51+AA51+AB51+AC51)*G51/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF51" s="10"/>
       <c r="AG51" s="10"/>
       <c r="AH51" s="24">
-        <f>F51*G51</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI51" s="24">
-        <f>O51*G51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ51" s="24">
-        <f>P51*G51</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK51" s="24">
-        <f>AE51</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL51" s="29" t="e">
-        <f>(AH51+AI51+AJ51+AM51)/AK51</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM51" s="24"/>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13">
-        <f>E52-K52</f>
+        <f t="shared" si="12"/>
         <v>15.273</v>
       </c>
       <c r="M52" s="13"/>
@@ -7177,18 +7177,18 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13">
-        <f>E52/5</f>
+        <f t="shared" si="13"/>
         <v>3.0545999999999998</v>
       </c>
       <c r="R52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52" s="13"/>
       <c r="U52" s="13">
-        <f>(F52+O52+P52+R52)/Q52</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V52" s="13">
-        <f>(F52+O52+P52)/Q52</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W52" s="13">
@@ -7216,29 +7216,29 @@
         <v>7.4686000000000003</v>
       </c>
       <c r="AE52" s="26">
-        <f>(Z52+AA52+AB52+AC52)*G52/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF52" s="13"/>
       <c r="AG52" s="13"/>
       <c r="AH52" s="24">
-        <f>F52*G52</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI52" s="24">
-        <f>O52*G52</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ52" s="24">
-        <f>P52*G52</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK52" s="24">
-        <f>AE52</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL52" s="29" t="e">
-        <f>(AH52+AI52+AJ52+AM52)/AK52</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM52" s="24"/>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13">
-        <f>E53-K53</f>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="M53" s="13"/>
@@ -7291,18 +7291,18 @@
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
       <c r="Q53" s="13">
-        <f>E53/5</f>
+        <f t="shared" si="13"/>
         <v>12.8</v>
       </c>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="13"/>
       <c r="U53" s="13">
-        <f>(F53+O53+P53+R53)/Q53</f>
+        <f t="shared" si="14"/>
         <v>-1.796875</v>
       </c>
       <c r="V53" s="13">
-        <f>(F53+O53+P53)/Q53</f>
+        <f t="shared" si="15"/>
         <v>-1.796875</v>
       </c>
       <c r="W53" s="13">
@@ -7330,29 +7330,29 @@
         <v>9.4</v>
       </c>
       <c r="AE53" s="26">
-        <f>(Z53+AA53+AB53+AC53)*G53/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF53" s="13"/>
       <c r="AG53" s="13"/>
       <c r="AH53" s="24">
-        <f>F53*G53</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI53" s="24">
-        <f>O53*G53</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ53" s="24">
-        <f>P53*G53</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK53" s="24">
-        <f>AE53</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL53" s="29" t="e">
-        <f>(AH53+AI53+AJ53+AM53)/AK53</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM53" s="24"/>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="13">
-        <f>E54-K54</f>
+        <f t="shared" si="12"/>
         <v>27.539000000000001</v>
       </c>
       <c r="M54" s="13"/>
@@ -7405,18 +7405,18 @@
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13">
-        <f>E54/5</f>
+        <f t="shared" si="13"/>
         <v>5.5078000000000005</v>
       </c>
       <c r="R54" s="15"/>
       <c r="S54" s="15"/>
       <c r="T54" s="13"/>
       <c r="U54" s="13">
-        <f>(F54+O54+P54+R54)/Q54</f>
+        <f t="shared" si="14"/>
         <v>-2.1057409491993173</v>
       </c>
       <c r="V54" s="13">
-        <f>(F54+O54+P54)/Q54</f>
+        <f t="shared" si="15"/>
         <v>-2.1057409491993173</v>
       </c>
       <c r="W54" s="13">
@@ -7444,29 +7444,29 @@
         <v>2.3443999999999998</v>
       </c>
       <c r="AE54" s="26">
-        <f>(Z54+AA54+AB54+AC54)*G54/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF54" s="13"/>
       <c r="AG54" s="13"/>
       <c r="AH54" s="24">
-        <f>F54*G54</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI54" s="24">
-        <f>O54*G54</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ54" s="24">
-        <f>P54*G54</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK54" s="24">
-        <f>AE54</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL54" s="29" t="e">
-        <f>(AH54+AI54+AJ54+AM54)/AK54</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM54" s="24"/>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13">
-        <f>E55-K55</f>
+        <f t="shared" si="12"/>
         <v>16.033999999999999</v>
       </c>
       <c r="M55" s="13"/>
@@ -7519,18 +7519,18 @@
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13">
-        <f>E55/5</f>
+        <f t="shared" si="13"/>
         <v>3.2067999999999999</v>
       </c>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="13"/>
       <c r="U55" s="13">
-        <f>(F55+O55+P55+R55)/Q55</f>
+        <f t="shared" si="14"/>
         <v>-7.1582262691779963</v>
       </c>
       <c r="V55" s="13">
-        <f>(F55+O55+P55)/Q55</f>
+        <f t="shared" si="15"/>
         <v>-7.1582262691779963</v>
       </c>
       <c r="W55" s="13">
@@ -7558,29 +7558,29 @@
         <v>9.7118000000000002</v>
       </c>
       <c r="AE55" s="26">
-        <f>(Z55+AA55+AB55+AC55)*G55/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF55" s="13"/>
       <c r="AG55" s="13"/>
       <c r="AH55" s="24">
-        <f>F55*G55</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI55" s="24">
-        <f>O55*G55</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ55" s="24">
-        <f>P55*G55</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK55" s="24">
-        <f>AE55</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL55" s="29" t="e">
-        <f>(AH55+AI55+AJ55+AM55)/AK55</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM55" s="24"/>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13">
-        <f>E56-K56</f>
+        <f t="shared" si="12"/>
         <v>58.284999999999997</v>
       </c>
       <c r="M56" s="13"/>
@@ -7633,18 +7633,18 @@
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
       <c r="Q56" s="13">
-        <f>E56/5</f>
+        <f t="shared" si="13"/>
         <v>11.657</v>
       </c>
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="13"/>
       <c r="U56" s="13">
-        <f>(F56+O56+P56+R56)/Q56</f>
+        <f t="shared" si="14"/>
         <v>-1.7649480998541651</v>
       </c>
       <c r="V56" s="13">
-        <f>(F56+O56+P56)/Q56</f>
+        <f t="shared" si="15"/>
         <v>-1.7649480998541651</v>
       </c>
       <c r="W56" s="13">
@@ -7672,29 +7672,29 @@
         <v>13.587</v>
       </c>
       <c r="AE56" s="26">
-        <f>(Z56+AA56+AB56+AC56)*G56/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF56" s="13"/>
       <c r="AG56" s="13"/>
       <c r="AH56" s="24">
-        <f>F56*G56</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI56" s="24">
-        <f>O56*G56</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ56" s="24">
-        <f>P56*G56</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK56" s="24">
-        <f>AE56</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL56" s="29" t="e">
-        <f>(AH56+AI56+AJ56+AM56)/AK56</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM56" s="24"/>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13">
-        <f>E57-K57</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="M57" s="13"/>
@@ -7743,18 +7743,18 @@
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
       <c r="Q57" s="13">
-        <f>E57/5</f>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="13"/>
       <c r="U57" s="13">
-        <f>(F57+O57+P57+R57)/Q57</f>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
       <c r="V57" s="13">
-        <f>(F57+O57+P57)/Q57</f>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="W57" s="13">
@@ -7782,29 +7782,29 @@
         <v>0</v>
       </c>
       <c r="AE57" s="26">
-        <f>(Z57+AA57+AB57+AC57)*G57/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF57" s="13"/>
       <c r="AG57" s="13"/>
       <c r="AH57" s="24">
-        <f>F57*G57</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI57" s="24">
-        <f>O57*G57</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ57" s="24">
-        <f>P57*G57</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK57" s="24">
-        <f>AE57</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL57" s="29" t="e">
-        <f>(AH57+AI57+AJ57+AM57)/AK57</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM57" s="24"/>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13">
-        <f>E58-K58</f>
+        <f t="shared" si="12"/>
         <v>45.237000000000002</v>
       </c>
       <c r="M58" s="13"/>
@@ -7857,18 +7857,18 @@
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
       <c r="Q58" s="13">
-        <f>E58/5</f>
+        <f t="shared" si="13"/>
         <v>9.0473999999999997</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="13"/>
       <c r="U58" s="13">
-        <f>(F58+O58+P58+R58)/Q58</f>
+        <f t="shared" si="14"/>
         <v>-3.1225545460574313</v>
       </c>
       <c r="V58" s="13">
-        <f>(F58+O58+P58)/Q58</f>
+        <f t="shared" si="15"/>
         <v>-3.1225545460574313</v>
       </c>
       <c r="W58" s="13">
@@ -7896,29 +7896,29 @@
         <v>8.0025999999999993</v>
       </c>
       <c r="AE58" s="26">
-        <f>(Z58+AA58+AB58+AC58)*G58/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
       <c r="AH58" s="24">
-        <f>F58*G58</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI58" s="24">
-        <f>O58*G58</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ58" s="24">
-        <f>P58*G58</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK58" s="24">
-        <f>AE58</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL58" s="29" t="e">
-        <f>(AH58+AI58+AJ58+AM58)/AK58</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM58" s="24"/>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13">
-        <f>E59-K59</f>
+        <f t="shared" si="12"/>
         <v>44.713999999999999</v>
       </c>
       <c r="M59" s="13"/>
@@ -7971,18 +7971,18 @@
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="13">
-        <f>E59/5</f>
+        <f t="shared" si="13"/>
         <v>8.9428000000000001</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="13"/>
       <c r="U59" s="13">
-        <f>(F59+O59+P59+R59)/Q59</f>
+        <f t="shared" si="14"/>
         <v>-3.3343024556067453</v>
       </c>
       <c r="V59" s="13">
-        <f>(F59+O59+P59)/Q59</f>
+        <f t="shared" si="15"/>
         <v>-3.3343024556067453</v>
       </c>
       <c r="W59" s="13">
@@ -8010,29 +8010,29 @@
         <v>3.5004</v>
       </c>
       <c r="AE59" s="26">
-        <f>(Z59+AA59+AB59+AC59)*G59/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF59" s="13"/>
       <c r="AG59" s="13"/>
       <c r="AH59" s="24">
-        <f>F59*G59</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI59" s="24">
-        <f>O59*G59</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ59" s="24">
-        <f>P59*G59</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK59" s="24">
-        <f>AE59</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL59" s="29" t="e">
-        <f>(AH59+AI59+AJ59+AM59)/AK59</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM59" s="24"/>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13">
-        <f>E60-K60</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="M60" s="13"/>
@@ -8085,18 +8085,18 @@
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13">
-        <f>E60/5</f>
+        <f t="shared" si="13"/>
         <v>3.8</v>
       </c>
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="13"/>
       <c r="U60" s="13">
-        <f>(F60+O60+P60+R60)/Q60</f>
+        <f t="shared" si="14"/>
         <v>-4.4736842105263159</v>
       </c>
       <c r="V60" s="13">
-        <f>(F60+O60+P60)/Q60</f>
+        <f t="shared" si="15"/>
         <v>-4.4736842105263159</v>
       </c>
       <c r="W60" s="13">
@@ -8124,29 +8124,29 @@
         <v>3</v>
       </c>
       <c r="AE60" s="26">
-        <f>(Z60+AA60+AB60+AC60)*G60/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF60" s="13"/>
       <c r="AG60" s="13"/>
       <c r="AH60" s="24">
-        <f>F60*G60</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI60" s="24">
-        <f>O60*G60</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ60" s="24">
-        <f>P60*G60</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK60" s="24">
-        <f>AE60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL60" s="29" t="e">
-        <f>(AH60+AI60+AJ60+AM60)/AK60</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM60" s="24"/>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13">
-        <f>E61-K61</f>
+        <f t="shared" si="12"/>
         <v>36.195999999999998</v>
       </c>
       <c r="M61" s="13"/>
@@ -8199,18 +8199,18 @@
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="13">
-        <f>E61/5</f>
+        <f t="shared" si="13"/>
         <v>7.2391999999999994</v>
       </c>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="13"/>
       <c r="U61" s="13">
-        <f>(F61+O61+P61+R61)/Q61</f>
+        <f t="shared" si="14"/>
         <v>-3.1006188529119245</v>
       </c>
       <c r="V61" s="13">
-        <f>(F61+O61+P61)/Q61</f>
+        <f t="shared" si="15"/>
         <v>-3.1006188529119245</v>
       </c>
       <c r="W61" s="13">
@@ -8238,29 +8238,29 @@
         <v>7.5890000000000004</v>
       </c>
       <c r="AE61" s="26">
-        <f>(Z61+AA61+AB61+AC61)*G61/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF61" s="13"/>
       <c r="AG61" s="13"/>
       <c r="AH61" s="24">
-        <f>F61*G61</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI61" s="24">
-        <f>O61*G61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ61" s="24">
-        <f>P61*G61</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK61" s="24">
-        <f>AE61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL61" s="29" t="e">
-        <f>(AH61+AI61+AJ61+AM61)/AK61</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM61" s="24"/>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13">
-        <f>E62-K62</f>
+        <f t="shared" si="12"/>
         <v>98.37</v>
       </c>
       <c r="M62" s="13"/>
@@ -8313,18 +8313,18 @@
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="13">
-        <f>E62/5</f>
+        <f t="shared" si="13"/>
         <v>19.673999999999999</v>
       </c>
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="13"/>
       <c r="U62" s="13">
-        <f>(F62+O62+P62+R62)/Q62</f>
+        <f t="shared" si="14"/>
         <v>-3.2220189082037209</v>
       </c>
       <c r="V62" s="13">
-        <f>(F62+O62+P62)/Q62</f>
+        <f t="shared" si="15"/>
         <v>-3.2220189082037209</v>
       </c>
       <c r="W62" s="13">
@@ -8352,29 +8352,29 @@
         <v>21.61</v>
       </c>
       <c r="AE62" s="26">
-        <f>(Z62+AA62+AB62+AC62)*G62/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF62" s="13"/>
       <c r="AG62" s="13"/>
       <c r="AH62" s="24">
-        <f>F62*G62</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI62" s="24">
-        <f>O62*G62</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ62" s="24">
-        <f>P62*G62</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK62" s="24">
-        <f>AE62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL62" s="29" t="e">
-        <f>(AH62+AI62+AJ62+AM62)/AK62</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM62" s="24"/>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13">
-        <f>E63-K63</f>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="M63" s="13"/>
@@ -8427,18 +8427,18 @@
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="13">
-        <f>E63/5</f>
+        <f t="shared" si="13"/>
         <v>15.4</v>
       </c>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="13"/>
       <c r="U63" s="13">
-        <f>(F63+O63+P63+R63)/Q63</f>
+        <f t="shared" si="14"/>
         <v>-2.4025974025974026</v>
       </c>
       <c r="V63" s="13">
-        <f>(F63+O63+P63)/Q63</f>
+        <f t="shared" si="15"/>
         <v>-2.4025974025974026</v>
       </c>
       <c r="W63" s="13">
@@ -8466,29 +8466,29 @@
         <v>11.8</v>
       </c>
       <c r="AE63" s="26">
-        <f>(Z63+AA63+AB63+AC63)*G63/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF63" s="13"/>
       <c r="AG63" s="13"/>
       <c r="AH63" s="24">
-        <f>F63*G63</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI63" s="24">
-        <f>O63*G63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ63" s="24">
-        <f>P63*G63</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK63" s="24">
-        <f>AE63</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL63" s="29" t="e">
-        <f>(AH63+AI63+AJ63+AM63)/AK63</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM63" s="24"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13">
-        <f>E64-K64</f>
+        <f t="shared" si="12"/>
         <v>80.013000000000005</v>
       </c>
       <c r="M64" s="13"/>
@@ -8541,18 +8541,18 @@
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="13">
-        <f>E64/5</f>
+        <f t="shared" si="13"/>
         <v>16.002600000000001</v>
       </c>
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="13"/>
       <c r="U64" s="13">
-        <f>(F64+O64+P64+R64)/Q64</f>
+        <f t="shared" si="14"/>
         <v>-3.1399897516653539</v>
       </c>
       <c r="V64" s="13">
-        <f>(F64+O64+P64)/Q64</f>
+        <f t="shared" si="15"/>
         <v>-3.1399897516653539</v>
       </c>
       <c r="W64" s="13">
@@ -8580,29 +8580,29 @@
         <v>19.2394</v>
       </c>
       <c r="AE64" s="26">
-        <f>(Z64+AA64+AB64+AC64)*G64/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF64" s="13"/>
       <c r="AG64" s="13"/>
       <c r="AH64" s="24">
-        <f>F64*G64</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI64" s="24">
-        <f>O64*G64</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ64" s="24">
-        <f>P64*G64</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK64" s="24">
-        <f>AE64</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL64" s="29" t="e">
-        <f>(AH64+AI64+AJ64+AM64)/AK64</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM64" s="24"/>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13">
-        <f>E65-K65</f>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="M65" s="13"/>
@@ -8653,18 +8653,18 @@
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="13">
-        <f>E65/5</f>
+        <f t="shared" si="13"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="13"/>
       <c r="U65" s="13">
-        <f>(F65+O65+P65+R65)/Q65</f>
+        <f t="shared" si="14"/>
         <v>-5</v>
       </c>
       <c r="V65" s="13">
-        <f>(F65+O65+P65)/Q65</f>
+        <f t="shared" si="15"/>
         <v>-5</v>
       </c>
       <c r="W65" s="13">
@@ -8692,29 +8692,29 @@
         <v>0</v>
       </c>
       <c r="AE65" s="26">
-        <f>(Z65+AA65+AB65+AC65)*G65/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF65" s="13"/>
       <c r="AG65" s="13"/>
       <c r="AH65" s="24">
-        <f>F65*G65</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI65" s="24">
-        <f>O65*G65</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ65" s="24">
-        <f>P65*G65</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK65" s="24">
-        <f>AE65</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL65" s="29" t="e">
-        <f>(AH65+AI65+AJ65+AM65)/AK65</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM65" s="24"/>
@@ -8757,7 +8757,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
       <c r="L66" s="10">
-        <f>E66-K66</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M66" s="10"/>
@@ -8765,18 +8765,18 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10">
-        <f>E66/5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" s="10"/>
       <c r="U66" s="10" t="e">
-        <f>(F66+O66+P66+R66)/Q66</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V66" s="10" t="e">
-        <f>(F66+O66+P66)/Q66</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W66" s="10">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="26">
-        <f>(Z66+AA66+AB66+AC66)*G66/4</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF66" s="10" t="s">
@@ -8812,23 +8812,23 @@
       </c>
       <c r="AG66" s="10"/>
       <c r="AH66" s="24">
-        <f>F66*G66</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI66" s="24">
-        <f>O66*G66</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ66" s="24">
-        <f>P66*G66</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AK66" s="24">
-        <f>AE66</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL66" s="30" t="e">
-        <f>(AH66+AI66+AJ66+AM66)/AK66</f>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AM66" s="24"/>
@@ -8862,74 +8862,74 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="4">
-        <f>SUM(K68:K546)</f>
+        <f t="shared" ref="K67:S67" si="22">SUM(K68:K546)</f>
         <v>0</v>
       </c>
       <c r="L67" s="4">
-        <f>SUM(L68:L546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M67" s="4">
-        <f>SUM(M68:M546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N67" s="4">
-        <f>SUM(N68:N546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O67" s="4">
-        <f>SUM(O68:O546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P67" s="4">
-        <f>SUM(P68:P546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q67" s="4">
-        <f>SUM(Q68:Q546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R67" s="41">
-        <f>SUM(R68:R546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S67" s="41">
-        <f>SUM(S68:S546)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="4">
-        <f>SUM(W68:W546)</f>
+        <f t="shared" ref="W67:AD67" si="23">SUM(W68:W546)</f>
         <v>0</v>
       </c>
       <c r="X67" s="4">
-        <f>SUM(X68:X546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y67" s="4">
-        <f>SUM(Y68:Y546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z67" s="4">
-        <f>SUM(Z68:Z546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AA67" s="4">
-        <f>SUM(AA68:AA546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB67" s="4">
-        <f>SUM(AB68:AB546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC67" s="4">
-        <f>SUM(AC68:AC546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD67" s="4">
-        <f>SUM(AD68:AD546)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AE67" s="26"/>
